--- a/ЗАВОДЫ/ПОКОМ/ОПТы/2025/05,25/05,05,25 Бутырин на отгрузку с филиалами 10,05,25/Бутырин 12.05.2025.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/ОПТы/2025/05,25/05,05,25 Бутырин на отгрузку с филиалами 10,05,25/Бутырин 12.05.2025.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\05,05,25 Бутырин на отгрузку с филиалами 10,05,25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\ЗАВОДЫ\ПОКОМ\ОПТы\2025\05,25\05,05,25 Бутырин на отгрузку с филиалами 10,05,25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E0D3E2-F5AD-40FB-B502-42BD7D79BE2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D80A3DF-4931-4931-9D1D-19307843A30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$E$73</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -300,24 +295,32 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
@@ -522,27 +525,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1709,10 +1712,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:V474"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1840,7 +1844,7 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1943,7 +1947,7 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1976,7 +1980,7 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -2009,7 +2013,7 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -2042,7 +2046,7 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -2075,7 +2079,7 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -2108,7 +2112,7 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -2141,7 +2145,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -2244,7 +2248,7 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -2487,7 +2491,7 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
     </row>
-    <row r="24" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -2555,7 +2559,7 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
     </row>
-    <row r="26" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
@@ -2623,7 +2627,7 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
     </row>
-    <row r="28" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
@@ -2656,7 +2660,7 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
     </row>
-    <row r="29" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
@@ -2689,7 +2693,7 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
     </row>
-    <row r="30" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
@@ -2792,7 +2796,7 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
     </row>
-    <row r="33" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
@@ -2825,7 +2829,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
     </row>
-    <row r="34" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
@@ -2858,7 +2862,7 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
     </row>
-    <row r="35" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
@@ -2891,7 +2895,7 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
     </row>
-    <row r="36" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>39</v>
       </c>
@@ -2924,7 +2928,7 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
     </row>
-    <row r="37" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
@@ -2957,7 +2961,7 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
     </row>
-    <row r="38" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
@@ -2990,7 +2994,7 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
     </row>
-    <row r="39" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
@@ -3023,7 +3027,7 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
     </row>
-    <row r="40" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
@@ -3056,7 +3060,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
     </row>
-    <row r="41" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>44</v>
       </c>
@@ -3089,7 +3093,7 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
     </row>
-    <row r="42" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
@@ -3122,7 +3126,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
     </row>
-    <row r="43" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
@@ -3155,7 +3159,7 @@
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
     </row>
-    <row r="44" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
@@ -3188,7 +3192,7 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
     </row>
-    <row r="45" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>48</v>
       </c>
@@ -3221,7 +3225,7 @@
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
     </row>
-    <row r="46" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>49</v>
       </c>
@@ -3254,7 +3258,7 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
     </row>
-    <row r="47" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
@@ -3287,7 +3291,7 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
     </row>
-    <row r="48" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>51</v>
       </c>
@@ -3320,7 +3324,7 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
     </row>
-    <row r="49" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>52</v>
       </c>
@@ -3353,7 +3357,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
     </row>
-    <row r="50" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
@@ -3386,7 +3390,7 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
     </row>
-    <row r="51" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>54</v>
       </c>
@@ -3419,7 +3423,7 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
     </row>
-    <row r="52" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>55</v>
       </c>
@@ -3452,7 +3456,7 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
     </row>
-    <row r="53" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>56</v>
       </c>
@@ -3485,7 +3489,7 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
     </row>
-    <row r="54" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>57</v>
       </c>
@@ -3518,7 +3522,7 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
     </row>
-    <row r="55" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>58</v>
       </c>
@@ -3551,7 +3555,7 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
     </row>
-    <row r="56" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>59</v>
       </c>
@@ -3584,7 +3588,7 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
     </row>
-    <row r="57" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>60</v>
       </c>
@@ -3617,7 +3621,7 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
     </row>
-    <row r="58" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>61</v>
       </c>
@@ -3650,7 +3654,7 @@
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
     </row>
-    <row r="59" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>62</v>
       </c>
@@ -3718,7 +3722,7 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
     </row>
-    <row r="61" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>64</v>
       </c>
@@ -3751,7 +3755,7 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
     </row>
-    <row r="62" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
@@ -3784,7 +3788,7 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
     </row>
-    <row r="63" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>66</v>
       </c>
@@ -3817,7 +3821,7 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
     </row>
-    <row r="64" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>67</v>
       </c>
@@ -3850,7 +3854,7 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
     </row>
-    <row r="65" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>68</v>
       </c>
@@ -3883,7 +3887,7 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
     </row>
-    <row r="66" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>69</v>
       </c>
@@ -3916,7 +3920,7 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
     </row>
-    <row r="67" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>70</v>
       </c>
@@ -3949,7 +3953,7 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
     </row>
-    <row r="68" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>71</v>
       </c>
@@ -3982,7 +3986,7 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
     </row>
-    <row r="69" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>72</v>
       </c>
@@ -4015,7 +4019,7 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
     </row>
-    <row r="70" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>73</v>
       </c>
@@ -4048,7 +4052,7 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
     </row>
-    <row r="71" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>74</v>
       </c>
@@ -4081,7 +4085,7 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
     </row>
-    <row r="72" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>75</v>
       </c>
@@ -4114,7 +4118,7 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
     </row>
-    <row r="73" spans="1:22" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" ht="13.7" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>76</v>
       </c>
@@ -13772,6 +13776,13 @@
       <c r="V474" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A3:E73" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="A1:B474 D1:V474">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
